--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0719bcdae90c73dc/바탕 화면/workspace/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이찬규\OneDrive\바탕 화면\workspace\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{6148E235-45AA-48EB-8827-D3C730CDB88A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4224CF69-5145-4DA5-82BD-9AD9C839085B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF89DBA-0327-4F28-80C6-423EED32C0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <author>tc={35791909-7785-4C0F-B48D-5DDD00463909}</author>
   </authors>
   <commentList>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{35791909-7785-4C0F-B48D-5DDD00463909}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{35791909-7785-4C0F-B48D-5DDD00463909}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="300">
   <si>
     <t>인간공학</t>
   </si>
@@ -1173,6 +1173,14 @@
   </si>
   <si>
     <t>산업정보전공필수학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업시스템공학과기초교양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업시스템공학과기초교양학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1599,7 +1607,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AQ1" dT="2020-10-26T12:18:01.91" personId="{BB365D56-9366-464D-81A1-C1AEB79E3B0D}" id="{35791909-7785-4C0F-B48D-5DDD00463909}">
+  <threadedComment ref="AS1" dT="2020-10-26T12:18:01.91" personId="{BB365D56-9366-464D-81A1-C1AEB79E3B0D}" id="{35791909-7785-4C0F-B48D-5DDD00463909}">
     <text>3과목중1과목 전선필수</text>
   </threadedComment>
 </ThreadedComments>
@@ -1607,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C511E-1637-4235-837E-53B27F652B1A}">
-  <dimension ref="A1:BH43"/>
+  <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BE1" sqref="BE1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1619,33 +1627,34 @@
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.4140625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.9140625" customWidth="1"/>
     <col min="7" max="7" width="6.9140625" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" customWidth="1"/>
+    <col min="10" max="10" width="24.58203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="28.25" customWidth="1"/>
+    <col min="15" max="15" width="26.08203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5" customWidth="1"/>
-    <col min="40" max="40" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" customWidth="1"/>
     <col min="42" max="42" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="12.4140625" customWidth="1"/>
-    <col min="53" max="53" width="34.58203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="12.4140625" customWidth="1"/>
+    <col min="55" max="55" width="34.58203125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -1677,157 +1686,163 @@
         <v>253</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
@@ -1864,152 +1879,158 @@
       <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="7">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="7">
-        <v>3</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="7">
-        <v>3</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="7">
+        <v>3</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
         <v>74</v>
       </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
         <v>128</v>
       </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
         <v>157</v>
       </c>
-      <c r="Z2">
-        <v>3</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
         <v>160</v>
       </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
         <v>159</v>
       </c>
-      <c r="AD2">
-        <v>3</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
         <v>79</v>
       </c>
-      <c r="AF2">
-        <v>3</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="s">
         <v>169</v>
       </c>
-      <c r="AH2">
-        <v>3</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="s">
         <v>171</v>
       </c>
-      <c r="AJ2">
-        <v>3</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AL2">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="s">
         <v>74</v>
       </c>
-      <c r="AL2">
-        <v>3</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2">
+        <v>3</v>
+      </c>
+      <c r="AO2" t="s">
         <v>191</v>
       </c>
-      <c r="AN2">
-        <v>3</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>193</v>
       </c>
-      <c r="AP2">
-        <v>3</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AR2">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="s">
         <v>218</v>
       </c>
-      <c r="AR2">
-        <v>3</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="s">
         <v>81</v>
       </c>
-      <c r="AT2">
-        <v>3</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="AV2">
+        <v>3</v>
+      </c>
+      <c r="AW2" t="s">
         <v>223</v>
       </c>
-      <c r="AV2">
-        <v>3</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="AX2">
+        <v>3</v>
+      </c>
+      <c r="AY2" t="s">
         <v>74</v>
       </c>
-      <c r="AX2">
-        <v>3</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="AZ2">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="s">
         <v>80</v>
       </c>
-      <c r="AZ2">
-        <v>3</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BB2">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="s">
         <v>235</v>
       </c>
-      <c r="BB2">
-        <v>3</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BD2">
+        <v>3</v>
+      </c>
+      <c r="BE2" t="s">
         <v>239</v>
       </c>
-      <c r="BD2">
-        <v>3</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BF2">
+        <v>3</v>
+      </c>
+      <c r="BG2" t="s">
         <v>74</v>
       </c>
-      <c r="BF2">
-        <v>3</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BH2">
+        <v>3</v>
+      </c>
+      <c r="BI2" t="s">
         <v>79</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2046,146 +2067,152 @@
       <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="7">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="7">
-        <v>3</v>
-      </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
         <v>93</v>
       </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
         <v>109</v>
       </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
         <v>89</v>
       </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
         <v>129</v>
       </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="s">
         <v>158</v>
       </c>
-      <c r="Z3">
-        <v>3</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="s">
         <v>161</v>
       </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="s">
         <v>75</v>
       </c>
-      <c r="AF3">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AH3">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="s">
         <v>170</v>
       </c>
-      <c r="AH3">
-        <v>3</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="s">
         <v>172</v>
       </c>
-      <c r="AJ3">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AL3">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="s">
         <v>71</v>
       </c>
-      <c r="AL3">
-        <v>3</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AN3">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="s">
         <v>192</v>
       </c>
-      <c r="AN3">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>194</v>
       </c>
-      <c r="AP3">
-        <v>3</v>
-      </c>
-      <c r="AQ3" t="s">
+      <c r="AR3">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="s">
         <v>219</v>
       </c>
-      <c r="AR3">
-        <v>3</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AT3">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="s">
         <v>222</v>
       </c>
-      <c r="AT3">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="s">
+      <c r="AV3">
+        <v>3</v>
+      </c>
+      <c r="AW3" t="s">
         <v>224</v>
       </c>
-      <c r="AV3">
-        <v>3</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="AX3">
+        <v>3</v>
+      </c>
+      <c r="AY3" t="s">
         <v>89</v>
       </c>
-      <c r="AX3">
-        <v>3</v>
-      </c>
-      <c r="AY3" t="s">
+      <c r="AZ3">
+        <v>3</v>
+      </c>
+      <c r="BA3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3">
-        <v>3</v>
-      </c>
-      <c r="BA3" t="s">
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="s">
         <v>236</v>
       </c>
-      <c r="BB3">
-        <v>3</v>
-      </c>
-      <c r="BC3" t="s">
+      <c r="BD3">
+        <v>3</v>
+      </c>
+      <c r="BE3" t="s">
         <v>240</v>
       </c>
-      <c r="BD3">
-        <v>3</v>
-      </c>
-      <c r="BE3" t="s">
+      <c r="BF3">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="s">
         <v>89</v>
       </c>
-      <c r="BF3">
-        <v>3</v>
-      </c>
-      <c r="BG3" t="s">
+      <c r="BH3">
+        <v>3</v>
+      </c>
+      <c r="BI3" t="s">
         <v>75</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2222,128 +2249,134 @@
       <c r="L4" s="7">
         <v>1</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="7">
-        <v>3</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
         <v>94</v>
       </c>
-      <c r="R4">
-        <v>3</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
         <v>110</v>
       </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4" t="s">
         <v>79</v>
       </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
         <v>126</v>
       </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AC4" t="s">
         <v>162</v>
       </c>
-      <c r="AB4">
-        <v>3</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AG4" t="s">
         <v>77</v>
       </c>
-      <c r="AF4">
-        <v>3</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AK4" t="s">
         <v>173</v>
       </c>
-      <c r="AJ4">
-        <v>3</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4" t="s">
         <v>73</v>
       </c>
-      <c r="AL4">
-        <v>3</v>
-      </c>
-      <c r="AO4" t="s">
+      <c r="AN4">
+        <v>3</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>195</v>
       </c>
-      <c r="AP4">
-        <v>3</v>
-      </c>
-      <c r="AQ4" t="s">
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4" t="s">
         <v>220</v>
       </c>
-      <c r="AR4">
-        <v>3</v>
-      </c>
-      <c r="AS4" t="s">
+      <c r="AT4">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="s">
         <v>71</v>
       </c>
-      <c r="AT4">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="s">
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4" t="s">
         <v>225</v>
       </c>
-      <c r="AV4">
-        <v>3</v>
-      </c>
-      <c r="AW4" t="s">
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4" t="s">
         <v>72</v>
       </c>
-      <c r="AX4">
-        <v>3</v>
-      </c>
-      <c r="AY4" t="s">
+      <c r="AZ4">
+        <v>3</v>
+      </c>
+      <c r="BA4" t="s">
         <v>84</v>
       </c>
-      <c r="AZ4">
-        <v>3</v>
-      </c>
-      <c r="BA4" t="s">
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4" t="s">
         <v>237</v>
       </c>
-      <c r="BB4">
-        <v>3</v>
-      </c>
-      <c r="BC4" t="s">
+      <c r="BD4">
+        <v>3</v>
+      </c>
+      <c r="BE4" t="s">
         <v>241</v>
       </c>
-      <c r="BD4">
-        <v>3</v>
-      </c>
-      <c r="BE4" t="s">
+      <c r="BF4">
+        <v>3</v>
+      </c>
+      <c r="BG4" t="s">
         <v>80</v>
       </c>
-      <c r="BF4">
-        <v>3</v>
-      </c>
-      <c r="BG4" t="s">
+      <c r="BH4">
+        <v>3</v>
+      </c>
+      <c r="BI4" t="s">
         <v>77</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2380,110 +2413,116 @@
       <c r="L5" s="7">
         <v>2</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="9">
-        <v>3</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
         <v>95</v>
       </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
         <v>111</v>
       </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
         <v>72</v>
       </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
         <v>130</v>
       </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="s">
         <v>163</v>
       </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="s">
         <v>70</v>
       </c>
-      <c r="AF5">
-        <v>3</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AH5">
+        <v>3</v>
+      </c>
+      <c r="AK5" t="s">
         <v>174</v>
       </c>
-      <c r="AJ5">
-        <v>3</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="AL5">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="s">
         <v>79</v>
       </c>
-      <c r="AL5">
-        <v>3</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="AN5">
+        <v>3</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>196</v>
       </c>
-      <c r="AP5">
-        <v>3</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="s">
         <v>83</v>
       </c>
-      <c r="AT5">
-        <v>3</v>
-      </c>
-      <c r="AU5" t="s">
+      <c r="AV5">
+        <v>3</v>
+      </c>
+      <c r="AW5" t="s">
         <v>226</v>
       </c>
-      <c r="AV5">
-        <v>3</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="BA5" t="s">
         <v>85</v>
       </c>
-      <c r="AZ5">
-        <v>3</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5" t="s">
         <v>238</v>
       </c>
-      <c r="BB5">
-        <v>3</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="BD5">
+        <v>3</v>
+      </c>
+      <c r="BE5" t="s">
         <v>242</v>
       </c>
-      <c r="BD5">
-        <v>3</v>
-      </c>
-      <c r="BG5" t="s">
+      <c r="BF5">
+        <v>3</v>
+      </c>
+      <c r="BI5" t="s">
         <v>71</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2520,104 +2559,110 @@
       <c r="L6" s="7">
         <v>2</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="9">
-        <v>3</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
         <v>96</v>
       </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6" t="s">
         <v>112</v>
       </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
         <v>127</v>
       </c>
-      <c r="V6">
-        <v>3</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="s">
         <v>131</v>
       </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AC6" t="s">
         <v>164</v>
       </c>
-      <c r="AB6">
-        <v>3</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="s">
         <v>168</v>
       </c>
-      <c r="AF6">
-        <v>3</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AH6">
+        <v>3</v>
+      </c>
+      <c r="AK6" t="s">
         <v>175</v>
       </c>
-      <c r="AJ6">
-        <v>3</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AL6">
+        <v>3</v>
+      </c>
+      <c r="AM6" t="s">
         <v>72</v>
       </c>
-      <c r="AL6">
-        <v>3</v>
-      </c>
-      <c r="AO6" t="s">
+      <c r="AN6">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>197</v>
       </c>
-      <c r="AP6">
-        <v>3</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AR6">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="s">
         <v>80</v>
       </c>
-      <c r="AT6">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="s">
+      <c r="AV6">
+        <v>3</v>
+      </c>
+      <c r="AW6" t="s">
         <v>105</v>
       </c>
-      <c r="AV6">
-        <v>3</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="AX6">
+        <v>3</v>
+      </c>
+      <c r="BA6" t="s">
         <v>75</v>
       </c>
-      <c r="AZ6">
-        <v>3</v>
-      </c>
-      <c r="BC6" t="s">
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BE6" t="s">
         <v>243</v>
       </c>
-      <c r="BD6">
-        <v>3</v>
-      </c>
-      <c r="BG6" t="s">
+      <c r="BF6">
+        <v>3</v>
+      </c>
+      <c r="BI6" t="s">
         <v>70</v>
       </c>
-      <c r="BH6">
+      <c r="BJ6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2654,98 +2699,100 @@
       <c r="L7" s="7">
         <v>2</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="9">
-        <v>3</v>
-      </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
         <v>97</v>
       </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
         <v>113</v>
       </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
         <v>71</v>
       </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
         <v>132</v>
       </c>
-      <c r="X7">
-        <v>3</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
         <v>165</v>
       </c>
-      <c r="AB7">
-        <v>3</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AG7" t="s">
         <v>72</v>
       </c>
-      <c r="AF7">
-        <v>3</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AK7" t="s">
         <v>176</v>
       </c>
-      <c r="AJ7">
-        <v>3</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7" t="s">
         <v>80</v>
       </c>
-      <c r="AL7">
-        <v>3</v>
-      </c>
-      <c r="AO7" t="s">
+      <c r="AN7">
+        <v>3</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>198</v>
       </c>
-      <c r="AP7">
-        <v>3</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="AR7">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="s">
         <v>86</v>
       </c>
-      <c r="AT7">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="s">
+      <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7" t="s">
         <v>227</v>
       </c>
-      <c r="AV7">
-        <v>3</v>
-      </c>
-      <c r="AY7" t="s">
+      <c r="AX7">
+        <v>3</v>
+      </c>
+      <c r="BA7" t="s">
         <v>79</v>
       </c>
-      <c r="AZ7">
-        <v>3</v>
-      </c>
-      <c r="BG7" t="s">
+      <c r="BB7">
+        <v>3</v>
+      </c>
+      <c r="BI7" t="s">
         <v>168</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -2780,80 +2827,82 @@
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
         <v>98</v>
       </c>
-      <c r="R8">
-        <v>3</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8" t="s">
         <v>114</v>
       </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="s">
         <v>133</v>
       </c>
-      <c r="X8">
-        <v>3</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
         <v>166</v>
       </c>
-      <c r="AB8">
-        <v>3</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AG8" t="s">
         <v>83</v>
       </c>
-      <c r="AF8">
-        <v>3</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AK8" t="s">
         <v>177</v>
       </c>
-      <c r="AJ8">
-        <v>3</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AL8">
+        <v>3</v>
+      </c>
+      <c r="AM8" t="s">
         <v>81</v>
       </c>
-      <c r="AL8">
-        <v>3</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AN8">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>199</v>
       </c>
-      <c r="AP8">
-        <v>3</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AR8">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="s">
         <v>168</v>
       </c>
-      <c r="AT8">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="s">
+      <c r="AV8">
+        <v>3</v>
+      </c>
+      <c r="AW8" t="s">
         <v>228</v>
       </c>
-      <c r="AV8">
-        <v>3</v>
-      </c>
-      <c r="BG8" t="s">
+      <c r="AX8">
+        <v>3</v>
+      </c>
+      <c r="BI8" t="s">
         <v>86</v>
       </c>
-      <c r="BH8">
+      <c r="BJ8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="E9" s="6" t="s">
@@ -2882,74 +2931,76 @@
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s">
         <v>99</v>
       </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9" t="s">
         <v>115</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>134</v>
       </c>
-      <c r="X9">
-        <v>3</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AC9" t="s">
         <v>167</v>
       </c>
-      <c r="AB9">
-        <v>3</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AG9" t="s">
         <v>89</v>
       </c>
-      <c r="AF9">
-        <v>3</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AH9">
+        <v>3</v>
+      </c>
+      <c r="AK9" t="s">
         <v>178</v>
       </c>
-      <c r="AJ9">
-        <v>3</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="AL9">
+        <v>3</v>
+      </c>
+      <c r="AM9" t="s">
         <v>168</v>
       </c>
-      <c r="AL9">
-        <v>3</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AN9">
+        <v>3</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>200</v>
       </c>
-      <c r="AP9">
-        <v>3</v>
-      </c>
-      <c r="AS9" t="s">
+      <c r="AR9">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="s">
         <v>79</v>
       </c>
-      <c r="AT9">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="s">
+      <c r="AV9">
+        <v>3</v>
+      </c>
+      <c r="AW9" t="s">
         <v>229</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
@@ -2976,68 +3027,70 @@
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
         <v>100</v>
       </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
         <v>116</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>2</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
         <v>135</v>
       </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AG10" t="s">
         <v>73</v>
       </c>
-      <c r="AF10">
-        <v>3</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AH10">
+        <v>3</v>
+      </c>
+      <c r="AK10" t="s">
         <v>179</v>
       </c>
-      <c r="AJ10">
-        <v>3</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AL10">
+        <v>3</v>
+      </c>
+      <c r="AM10" t="s">
         <v>72</v>
       </c>
-      <c r="AL10">
-        <v>3</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AN10">
+        <v>3</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>201</v>
       </c>
-      <c r="AP10">
-        <v>3</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="AR10">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="s">
         <v>74</v>
       </c>
-      <c r="AT10">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="s">
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10" t="s">
         <v>230</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
@@ -3056,76 +3109,72 @@
       <c r="J11" s="5">
         <v>3</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="7">
-        <v>3</v>
-      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="P11">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s">
         <v>101</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11" t="s">
-        <v>117</v>
       </c>
       <c r="T11">
         <v>2</v>
       </c>
-      <c r="W11" t="s">
+      <c r="U11" t="s">
+        <v>117</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="s">
         <v>136</v>
       </c>
-      <c r="X11">
-        <v>3</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="Z11">
+        <v>3</v>
+      </c>
+      <c r="AG11" t="s">
         <v>87</v>
       </c>
-      <c r="AF11">
-        <v>3</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AH11">
+        <v>3</v>
+      </c>
+      <c r="AK11" t="s">
         <v>180</v>
       </c>
-      <c r="AJ11">
-        <v>3</v>
-      </c>
-      <c r="AK11" t="s">
+      <c r="AL11">
+        <v>3</v>
+      </c>
+      <c r="AM11" t="s">
         <v>84</v>
       </c>
-      <c r="AL11">
-        <v>3</v>
-      </c>
-      <c r="AO11" t="s">
+      <c r="AN11">
+        <v>3</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>202</v>
       </c>
-      <c r="AP11">
-        <v>3</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="AR11">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="s">
         <v>72</v>
       </c>
-      <c r="AT11">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="s">
+      <c r="AV11">
+        <v>3</v>
+      </c>
+      <c r="AW11" t="s">
         <v>231</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
@@ -3144,70 +3193,66 @@
       <c r="J12" s="5">
         <v>3</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="7">
-        <v>3</v>
-      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
         <v>102</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>2</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>118</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="s">
         <v>137</v>
       </c>
-      <c r="X12">
-        <v>3</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AG12" t="s">
         <v>91</v>
       </c>
-      <c r="AF12">
-        <v>3</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AH12">
+        <v>3</v>
+      </c>
+      <c r="AK12" t="s">
         <v>181</v>
       </c>
-      <c r="AJ12">
-        <v>3</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="AL12">
+        <v>3</v>
+      </c>
+      <c r="AM12" t="s">
         <v>190</v>
       </c>
-      <c r="AL12">
-        <v>3</v>
-      </c>
-      <c r="AO12" t="s">
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>203</v>
       </c>
-      <c r="AP12">
-        <v>3</v>
-      </c>
-      <c r="AU12" t="s">
+      <c r="AR12">
+        <v>3</v>
+      </c>
+      <c r="AW12" t="s">
         <v>232</v>
       </c>
-      <c r="AV12">
+      <c r="AX12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
@@ -3226,70 +3271,66 @@
       <c r="J13" s="5">
         <v>3</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7">
-        <v>3</v>
-      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
         <v>103</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>119</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="s">
         <v>138</v>
       </c>
-      <c r="X13">
-        <v>3</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="s">
         <v>71</v>
       </c>
-      <c r="AF13">
-        <v>3</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AH13">
+        <v>3</v>
+      </c>
+      <c r="AK13" t="s">
         <v>182</v>
       </c>
-      <c r="AJ13">
-        <v>3</v>
-      </c>
-      <c r="AK13" t="s">
+      <c r="AL13">
+        <v>3</v>
+      </c>
+      <c r="AM13" t="s">
         <v>86</v>
       </c>
-      <c r="AL13">
-        <v>3</v>
-      </c>
-      <c r="AO13" t="s">
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>204</v>
       </c>
-      <c r="AP13">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="s">
+      <c r="AR13">
+        <v>3</v>
+      </c>
+      <c r="AW13" t="s">
         <v>233</v>
       </c>
-      <c r="AV13">
+      <c r="AX13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
@@ -3308,64 +3349,60 @@
       <c r="J14" s="5">
         <v>3</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="7">
-        <v>3</v>
-      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
         <v>104</v>
       </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14" t="s">
         <v>120</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="s">
         <v>139</v>
       </c>
-      <c r="X14">
-        <v>3</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AK14" t="s">
         <v>183</v>
       </c>
-      <c r="AJ14">
-        <v>3</v>
-      </c>
-      <c r="AK14" t="s">
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14" t="s">
         <v>90</v>
       </c>
-      <c r="AL14">
-        <v>3</v>
-      </c>
-      <c r="AO14" t="s">
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>205</v>
       </c>
-      <c r="AP14">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="s">
+      <c r="AR14">
+        <v>3</v>
+      </c>
+      <c r="AW14" t="s">
         <v>234</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -3384,58 +3421,54 @@
       <c r="J15" s="5">
         <v>3</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="7">
-        <v>3</v>
-      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
         <v>105</v>
       </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
         <v>121</v>
       </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="s">
         <v>140</v>
       </c>
-      <c r="X15">
-        <v>3</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="s">
         <v>184</v>
       </c>
-      <c r="AJ15">
-        <v>3</v>
-      </c>
-      <c r="AK15" t="s">
+      <c r="AL15">
+        <v>3</v>
+      </c>
+      <c r="AM15" t="s">
         <v>88</v>
       </c>
-      <c r="AL15">
-        <v>3</v>
-      </c>
-      <c r="AO15" t="s">
+      <c r="AN15">
+        <v>3</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>206</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -3458,50 +3491,52 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
         <v>106</v>
       </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16" t="s">
         <v>122</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="s">
         <v>141</v>
       </c>
-      <c r="X16">
-        <v>3</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AK16" t="s">
         <v>185</v>
       </c>
-      <c r="AJ16">
-        <v>3</v>
-      </c>
-      <c r="AK16" t="s">
+      <c r="AL16">
+        <v>3</v>
+      </c>
+      <c r="AM16" t="s">
         <v>77</v>
       </c>
-      <c r="AL16">
-        <v>3</v>
-      </c>
-      <c r="AO16" t="s">
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>207</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="7"/>
@@ -3524,50 +3559,52 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
         <v>107</v>
       </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17" t="s">
         <v>123</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="s">
         <v>142</v>
       </c>
-      <c r="X17">
-        <v>3</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="Z17">
+        <v>3</v>
+      </c>
+      <c r="AK17" t="s">
         <v>186</v>
       </c>
-      <c r="AJ17">
-        <v>3</v>
-      </c>
-      <c r="AK17" t="s">
+      <c r="AL17">
+        <v>3</v>
+      </c>
+      <c r="AM17" t="s">
         <v>70</v>
       </c>
-      <c r="AL17">
-        <v>3</v>
-      </c>
-      <c r="AO17" t="s">
+      <c r="AN17">
+        <v>3</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>208</v>
       </c>
-      <c r="AP17">
+      <c r="AR17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="7"/>
@@ -3590,33 +3627,35 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
-      <c r="S18" t="s">
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
+      <c r="U18" t="s">
         <v>124</v>
       </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="s">
         <v>143</v>
       </c>
-      <c r="X18">
-        <v>3</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="Z18">
+        <v>3</v>
+      </c>
+      <c r="AK18" t="s">
         <v>187</v>
       </c>
-      <c r="AJ18">
-        <v>3</v>
-      </c>
-      <c r="AO18" t="s">
+      <c r="AL18">
+        <v>3</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>209</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
@@ -3639,33 +3678,35 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
-      <c r="S19" t="s">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+      <c r="U19" t="s">
         <v>125</v>
       </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="s">
         <v>144</v>
       </c>
-      <c r="X19">
-        <v>3</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AK19" t="s">
         <v>188</v>
       </c>
-      <c r="AJ19">
-        <v>3</v>
-      </c>
-      <c r="AO19" t="s">
+      <c r="AL19">
+        <v>3</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>210</v>
       </c>
-      <c r="AP19">
+      <c r="AR19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="7"/>
@@ -3688,27 +3729,29 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="8"/>
-      <c r="W20" t="s">
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
+      <c r="Y20" t="s">
         <v>145</v>
       </c>
-      <c r="X20">
-        <v>3</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AK20" t="s">
         <v>189</v>
       </c>
-      <c r="AJ20">
-        <v>3</v>
-      </c>
-      <c r="AO20" t="s">
+      <c r="AL20">
+        <v>3</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>211</v>
       </c>
-      <c r="AP20">
+      <c r="AR20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="7"/>
@@ -3731,21 +3774,23 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="8"/>
-      <c r="W21" t="s">
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+      <c r="Y21" t="s">
         <v>146</v>
       </c>
-      <c r="X21">
-        <v>3</v>
-      </c>
-      <c r="AO21" t="s">
+      <c r="Z21">
+        <v>3</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>212</v>
       </c>
-      <c r="AP21">
+      <c r="AR21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -3768,21 +3813,23 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="8"/>
-      <c r="W22" t="s">
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+      <c r="Y22" t="s">
         <v>147</v>
       </c>
-      <c r="X22">
-        <v>3</v>
-      </c>
-      <c r="AO22" t="s">
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>213</v>
       </c>
-      <c r="AP22">
+      <c r="AR22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3801,21 +3848,23 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="8"/>
-      <c r="W23" t="s">
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+      <c r="Y23" t="s">
         <v>147</v>
       </c>
-      <c r="X23">
-        <v>3</v>
-      </c>
-      <c r="AO23" t="s">
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>214</v>
       </c>
-      <c r="AP23">
+      <c r="AR23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3834,21 +3883,23 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="8"/>
-      <c r="W24" t="s">
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+      <c r="Y24" t="s">
         <v>148</v>
       </c>
-      <c r="X24">
-        <v>3</v>
-      </c>
-      <c r="AO24" t="s">
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>215</v>
       </c>
-      <c r="AP24">
+      <c r="AR24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3867,21 +3918,23 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="8"/>
-      <c r="W25" t="s">
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="8"/>
+      <c r="Y25" t="s">
         <v>149</v>
       </c>
-      <c r="X25">
-        <v>3</v>
-      </c>
-      <c r="AO25" t="s">
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>216</v>
       </c>
-      <c r="AP25">
+      <c r="AR25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3900,21 +3953,23 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="8"/>
-      <c r="W26" t="s">
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="8"/>
+      <c r="Y26" t="s">
         <v>150</v>
       </c>
-      <c r="X26">
-        <v>3</v>
-      </c>
-      <c r="AO26" t="s">
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>217</v>
       </c>
-      <c r="AP26">
+      <c r="AR26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3927,21 +3982,23 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="8"/>
-      <c r="W27" t="s">
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="8"/>
+      <c r="Y27" t="s">
         <v>151</v>
       </c>
-      <c r="X27">
-        <v>3</v>
-      </c>
-      <c r="AO27" t="s">
+      <c r="Z27">
+        <v>3</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>221</v>
       </c>
-      <c r="AP27">
+      <c r="AR27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3954,15 +4011,17 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="8"/>
-      <c r="W28" t="s">
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="8"/>
+      <c r="Y28" t="s">
         <v>152</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3977,15 +4036,17 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="8"/>
-      <c r="W29" t="s">
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="8"/>
+      <c r="Y29" t="s">
         <v>153</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4001,14 +4062,16 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="W30" t="s">
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="Y30" t="s">
         <v>154</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4024,14 +4087,16 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="W31" t="s">
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="Y31" t="s">
         <v>155</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4047,14 +4112,16 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="W32" t="s">
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="Y32" t="s">
         <v>156</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4070,8 +4137,10 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4087,8 +4156,10 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4104,8 +4175,10 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4121,8 +4194,10 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4138,8 +4213,10 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4155,8 +4232,10 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4172,8 +4251,10 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4189,8 +4270,10 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4206,8 +4289,10 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4223,8 +4308,10 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4240,6 +4327,8 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이찬규\OneDrive\바탕 화면\workspace\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Telegram_ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF89DBA-0327-4F28-80C6-423EED32C0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A3970-5270-46AD-AC62-0A94B8B97B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
+    <workbookView xWindow="10632" yWindow="0" windowWidth="11400" windowHeight="12336" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="315">
   <si>
     <t>인간공학</t>
   </si>
@@ -81,9 +81,6 @@
     <t>산업시스템공학기초설계</t>
   </si>
   <si>
-    <t>경영과학 1</t>
-  </si>
-  <si>
     <t>응용통계학</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>산업시스템공학종합설계</t>
   </si>
   <si>
-    <t>CAD 및 실습</t>
-  </si>
-  <si>
     <t>경영과학1</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>일반물리학및실험1</t>
   </si>
   <si>
-    <t>일반물리학실험2</t>
-  </si>
-  <si>
     <t>일반화학및실험1</t>
   </si>
   <si>
@@ -228,18 +219,9 @@
     <t>자아와명상2</t>
   </si>
   <si>
-    <t>나의삶,나의비전,</t>
-  </si>
-  <si>
     <t>불교와인간</t>
   </si>
   <si>
-    <t>기업가정신</t>
-  </si>
-  <si>
-    <t>리더십</t>
-  </si>
-  <si>
     <t>기술보고서작성및발표</t>
   </si>
   <si>
@@ -288,18 +270,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오픈소스스프트웨어프로젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>블록프로그래밍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파이선프로그래밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터베이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,10 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자료구조및말고리즘1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컴퓨터응용제어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1181,6 +1151,114 @@
   </si>
   <si>
     <t>산업시스템공학과기초교양학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의삶,나의비전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜앙트레프레너십과리더십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌앙트레프레너십과리더십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테크노앙트레프레너십과리더십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업가정신과혁신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테크노앙트러프러너십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌리더십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업시스템프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영과학1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및실습</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합프로그래밍1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합프로그래밍2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합프로그래밍통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반물리학및실험2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합소프트웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬프로그래밍기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커리어멘토링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈소스소프트웨어프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝과데이터사이언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터사이언스개론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹프로그래밍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,6 +1364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1617,234 +1698,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C511E-1637-4235-837E-53B27F652B1A}">
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.4140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.9140625" customWidth="1"/>
-    <col min="7" max="7" width="6.9140625" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="28.25" customWidth="1"/>
-    <col min="15" max="15" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" customWidth="1"/>
-    <col min="42" max="42" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="12.4140625" customWidth="1"/>
-    <col min="55" max="55" width="34.58203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.8984375" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="28.19921875" customWidth="1"/>
+    <col min="15" max="15" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.3984375" customWidth="1"/>
+    <col min="47" max="47" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="22.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="BE1" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5">
         <v>3</v>
@@ -1856,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2">
         <v>3</v>
@@ -1868,169 +1965,169 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" s="5">
         <v>3</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L2" s="7">
         <v>1</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N2" s="7">
         <v>3</v>
       </c>
       <c r="O2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P2" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="7">
+        <v>3</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="7">
-        <v>3</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z2">
-        <v>3</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AH2">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="s">
         <v>160</v>
       </c>
-      <c r="AD2">
-        <v>3</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF2">
-        <v>3</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2">
-        <v>3</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>169</v>
-      </c>
       <c r="AJ2">
         <v>3</v>
       </c>
       <c r="AK2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AL2">
         <v>3</v>
       </c>
       <c r="AM2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AN2">
         <v>3</v>
       </c>
       <c r="AO2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AP2">
         <v>3</v>
       </c>
       <c r="AQ2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AR2">
         <v>3</v>
       </c>
       <c r="AS2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AT2">
         <v>3</v>
       </c>
       <c r="AU2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AV2">
         <v>3</v>
       </c>
       <c r="AW2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AX2">
         <v>3</v>
       </c>
       <c r="AY2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AZ2">
         <v>3</v>
       </c>
       <c r="BA2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="BB2">
         <v>3</v>
       </c>
       <c r="BC2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="BD2">
         <v>3</v>
       </c>
       <c r="BE2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="BF2">
         <v>3</v>
       </c>
       <c r="BG2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="BH2">
         <v>3</v>
       </c>
       <c r="BI2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="BJ2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
@@ -2050,169 +2147,169 @@
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J3" s="5">
         <v>3</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L3" s="7">
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="7">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="7">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="P3" s="7">
         <v>3</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="V3">
         <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X3">
         <v>3</v>
       </c>
       <c r="Y3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Z3">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AB3">
         <v>3</v>
       </c>
       <c r="AC3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="s">
         <v>161</v>
       </c>
-      <c r="AD3">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL3">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN3">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR3">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT3">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV3">
+        <v>3</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AX3">
+        <v>3</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ3">
+        <v>3</v>
+      </c>
+      <c r="BA3" t="s">
         <v>75</v>
       </c>
-      <c r="AH3">
-        <v>3</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ3">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL3">
-        <v>3</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN3">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP3">
-        <v>3</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR3">
-        <v>3</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT3">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AV3">
-        <v>3</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AX3">
-        <v>3</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ3">
-        <v>3</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>83</v>
-      </c>
       <c r="BB3">
         <v>3</v>
       </c>
       <c r="BC3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="BD3">
         <v>3</v>
       </c>
       <c r="BE3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="BF3">
         <v>3</v>
       </c>
       <c r="BG3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="BH3">
         <v>3</v>
       </c>
       <c r="BI3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BJ3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2220,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -2232,151 +2329,151 @@
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="5">
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="7">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="P4" s="7">
         <v>3</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="V4">
         <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X4">
         <v>3</v>
       </c>
       <c r="Y4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Z4">
         <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AD4">
         <v>3</v>
       </c>
       <c r="AG4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH4">
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AL4">
         <v>3</v>
       </c>
       <c r="AM4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AN4">
         <v>3</v>
       </c>
       <c r="AQ4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AR4">
         <v>3</v>
       </c>
       <c r="AS4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AT4">
         <v>3</v>
       </c>
       <c r="AU4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AV4">
         <v>3</v>
       </c>
       <c r="AW4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AX4">
         <v>3</v>
       </c>
       <c r="AY4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ4">
+        <v>3</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD4">
+        <v>3</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF4">
+        <v>3</v>
+      </c>
+      <c r="BG4" t="s">
         <v>72</v>
       </c>
-      <c r="AZ4">
-        <v>3</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB4">
-        <v>3</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>237</v>
-      </c>
-      <c r="BD4">
-        <v>3</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>241</v>
-      </c>
-      <c r="BF4">
-        <v>3</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>80</v>
-      </c>
       <c r="BH4">
         <v>3</v>
       </c>
       <c r="BI4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BJ4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2384,145 +2481,145 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="6">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7">
         <v>2</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="7">
-        <v>3</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="P5" s="9">
         <v>3</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="V5">
         <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X5">
         <v>3</v>
       </c>
       <c r="Y5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Z5">
         <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AD5">
         <v>3</v>
       </c>
       <c r="AG5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AH5">
         <v>3</v>
       </c>
       <c r="AK5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AL5">
         <v>3</v>
       </c>
       <c r="AM5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AN5">
         <v>3</v>
       </c>
       <c r="AQ5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AR5">
         <v>3</v>
       </c>
       <c r="AU5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AV5">
         <v>3</v>
       </c>
       <c r="AW5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AX5">
         <v>3</v>
       </c>
       <c r="BA5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="BB5">
         <v>3</v>
       </c>
       <c r="BC5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="BD5">
         <v>3</v>
       </c>
       <c r="BE5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="BF5">
         <v>3</v>
       </c>
       <c r="BI5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="BJ5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2530,13 +2627,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -2548,121 +2645,121 @@
         <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J6" s="5">
         <v>3</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="7">
-        <v>3</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="P6" s="9">
         <v>3</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="R6">
         <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="V6">
         <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="X6">
         <v>3</v>
       </c>
       <c r="Y6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Z6">
         <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AD6">
         <v>3</v>
       </c>
       <c r="AG6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AH6">
         <v>3</v>
       </c>
       <c r="AK6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AL6">
         <v>3</v>
       </c>
       <c r="AM6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN6">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR6">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="s">
         <v>72</v>
       </c>
-      <c r="AN6">
-        <v>3</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR6">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>80</v>
-      </c>
       <c r="AV6">
         <v>3</v>
       </c>
       <c r="AW6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AX6">
         <v>3</v>
       </c>
       <c r="BA6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BB6">
         <v>3</v>
       </c>
       <c r="BE6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="BF6">
         <v>3</v>
       </c>
       <c r="BI6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="BJ6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2670,133 +2767,133 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="5">
         <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="9" t="s">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="P7" s="9">
         <v>3</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="R7">
         <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="V7">
         <v>3</v>
       </c>
       <c r="W7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN7">
+        <v>3</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR7">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX7">
+        <v>3</v>
+      </c>
+      <c r="BA7" t="s">
         <v>71</v>
       </c>
-      <c r="X7">
-        <v>3</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z7">
-        <v>3</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD7">
-        <v>3</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH7">
-        <v>3</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL7">
-        <v>3</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN7">
-        <v>3</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR7">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV7">
-        <v>3</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>227</v>
-      </c>
-      <c r="AX7">
-        <v>3</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>79</v>
-      </c>
       <c r="BB7">
         <v>3</v>
       </c>
       <c r="BI7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="BJ7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -2808,103 +2905,113 @@
         <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="6">
         <v>3</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8" s="5">
         <v>3</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L8" s="7">
         <v>3</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="O8" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3</v>
+      </c>
       <c r="Q8" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="V8">
         <v>3</v>
       </c>
       <c r="Y8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="Z8">
         <v>3</v>
       </c>
       <c r="AC8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AD8">
         <v>3</v>
       </c>
       <c r="AG8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH8">
         <v>3</v>
       </c>
       <c r="AK8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AL8">
         <v>3</v>
       </c>
       <c r="AM8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AN8">
         <v>3</v>
       </c>
       <c r="AQ8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AR8">
         <v>3</v>
       </c>
       <c r="AU8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AV8">
         <v>3</v>
       </c>
       <c r="AW8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AX8">
         <v>3</v>
       </c>
       <c r="BI8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="BJ8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2912,185 +3019,197 @@
         <v>3</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="6">
         <v>3</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7">
         <v>3</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="O9" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="P9" s="9">
+        <v>6</v>
+      </c>
       <c r="Q9" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="V9">
         <v>2</v>
       </c>
       <c r="Y9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Z9">
         <v>3</v>
       </c>
       <c r="AC9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AD9">
         <v>3</v>
       </c>
       <c r="AG9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH9">
         <v>3</v>
       </c>
       <c r="AK9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AL9">
         <v>3</v>
       </c>
       <c r="AM9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AN9">
         <v>3</v>
       </c>
       <c r="AQ9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AR9">
         <v>3</v>
       </c>
       <c r="AU9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AV9">
         <v>3</v>
       </c>
       <c r="AW9" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AX9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="6">
         <v>3</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="J10" s="5">
-        <v>3</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="O10" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="P10" s="9">
+        <v>3</v>
+      </c>
       <c r="Q10" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R10">
         <v>3</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="V10">
         <v>2</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Z10">
         <v>3</v>
       </c>
       <c r="AG10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AH10">
         <v>3</v>
       </c>
       <c r="AK10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL10">
         <v>3</v>
       </c>
       <c r="AM10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN10">
         <v>3</v>
       </c>
       <c r="AQ10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AR10">
         <v>3</v>
       </c>
       <c r="AU10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AV10">
         <v>3</v>
       </c>
       <c r="AW10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AX10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
@@ -3098,83 +3217,93 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J11" s="5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="O11" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3</v>
+      </c>
       <c r="Q11" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="R11">
         <v>3</v>
       </c>
       <c r="S11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="T11">
         <v>2</v>
       </c>
       <c r="U11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="V11">
         <v>2</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z11">
         <v>3</v>
       </c>
       <c r="AG11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH11">
         <v>3</v>
       </c>
       <c r="AK11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AL11">
         <v>3</v>
       </c>
       <c r="AM11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AN11">
         <v>3</v>
       </c>
       <c r="AQ11" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AR11">
         <v>3</v>
       </c>
       <c r="AU11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AV11">
         <v>3</v>
       </c>
       <c r="AW11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AX11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
@@ -3182,77 +3311,87 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="6">
         <v>3</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J12" s="5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="O12" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="P12" s="9">
+        <v>3</v>
+      </c>
       <c r="Q12" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="R12">
         <v>3</v>
       </c>
       <c r="S12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="V12">
         <v>3</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Z12">
         <v>3</v>
       </c>
       <c r="AG12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AH12">
         <v>3</v>
       </c>
       <c r="AK12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL12">
+        <v>3</v>
+      </c>
+      <c r="AM12" t="s">
         <v>181</v>
       </c>
-      <c r="AL12">
-        <v>3</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>190</v>
-      </c>
       <c r="AN12">
         <v>3</v>
       </c>
       <c r="AQ12" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AR12">
         <v>3</v>
       </c>
       <c r="AW12" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AX12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
@@ -3260,77 +3399,87 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="6">
         <v>3</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J13" s="5">
         <v>3</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="O13" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="P13" s="9">
+        <v>3</v>
+      </c>
       <c r="Q13" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="R13">
         <v>3</v>
       </c>
       <c r="S13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
       <c r="U13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="V13">
         <v>3</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Z13">
         <v>3</v>
       </c>
       <c r="AG13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AH13">
         <v>3</v>
       </c>
       <c r="AK13" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AL13">
         <v>3</v>
       </c>
       <c r="AM13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AN13">
         <v>3</v>
       </c>
       <c r="AQ13" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AR13">
         <v>3</v>
       </c>
       <c r="AW13" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AX13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
@@ -3338,71 +3487,77 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="6">
         <v>3</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J14" s="5">
         <v>3</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R14">
         <v>3</v>
       </c>
       <c r="S14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="V14">
         <v>3</v>
       </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z14">
         <v>3</v>
       </c>
       <c r="AK14" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AL14">
         <v>3</v>
       </c>
       <c r="AM14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AN14">
         <v>3</v>
       </c>
       <c r="AQ14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AR14">
         <v>3</v>
       </c>
       <c r="AW14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="AX14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -3410,13 +3565,13 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H15" s="6">
         <v>3</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J15" s="5">
         <v>3</v>
@@ -3426,49 +3581,49 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="R15">
         <v>3</v>
       </c>
       <c r="S15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="V15">
         <v>3</v>
       </c>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Z15">
         <v>3</v>
       </c>
       <c r="AK15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AL15">
         <v>3</v>
       </c>
       <c r="AM15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AN15">
         <v>3</v>
       </c>
       <c r="AQ15" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AR15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -3476,13 +3631,13 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="6">
         <v>3</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J16" s="5">
         <v>3</v>
@@ -3494,49 +3649,49 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="R16">
         <v>3</v>
       </c>
       <c r="S16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="V16">
         <v>3</v>
       </c>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Z16">
         <v>3</v>
       </c>
       <c r="AK16" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AL16">
         <v>3</v>
       </c>
       <c r="AM16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AN16">
         <v>3</v>
       </c>
       <c r="AQ16" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AR16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="7"/>
@@ -3544,13 +3699,13 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="6">
         <v>3</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J17" s="5">
         <v>3</v>
@@ -3562,49 +3717,49 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="R17">
         <v>3</v>
       </c>
       <c r="S17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="V17">
         <v>3</v>
       </c>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Z17">
         <v>3</v>
       </c>
       <c r="AK17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AL17">
         <v>3</v>
       </c>
       <c r="AM17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AN17">
         <v>3</v>
       </c>
       <c r="AQ17" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AR17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="7"/>
@@ -3612,13 +3767,13 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="6">
         <v>3</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J18" s="5">
         <v>3</v>
@@ -3629,33 +3784,38 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
       <c r="U18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="V18">
         <v>3</v>
       </c>
       <c r="Y18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Z18">
         <v>3</v>
       </c>
       <c r="AK18" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AL18">
         <v>3</v>
       </c>
       <c r="AQ18" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AR18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
@@ -3663,13 +3823,13 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H19" s="6">
         <v>3</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J19" s="5">
         <v>3</v>
@@ -3680,33 +3840,38 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
       <c r="U19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="V19">
         <v>3</v>
       </c>
       <c r="Y19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Z19">
         <v>3</v>
       </c>
       <c r="AK19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AL19">
         <v>3</v>
       </c>
       <c r="AQ19" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AR19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="7"/>
@@ -3714,13 +3879,13 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="6">
         <v>3</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J20" s="5">
         <v>3</v>
@@ -3731,27 +3896,32 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
       <c r="Y20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Z20">
         <v>3</v>
       </c>
       <c r="AK20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AL20">
         <v>3</v>
       </c>
       <c r="AQ20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AR20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="7"/>
@@ -3765,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J21" s="5">
         <v>3</v>
@@ -3776,21 +3946,26 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
       <c r="Y21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Z21">
         <v>3</v>
       </c>
       <c r="AQ21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AR21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -3798,13 +3973,13 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22" s="6">
         <v>3</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J22" s="5">
         <v>3</v>
@@ -3817,19 +3992,19 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="8"/>
       <c r="Y22" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Z22">
         <v>3</v>
       </c>
       <c r="AQ22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AR22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3837,7 +4012,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23" s="6">
         <v>3</v>
@@ -3852,19 +4027,19 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="8"/>
       <c r="Y23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Z23">
         <v>3</v>
       </c>
       <c r="AQ23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AR23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3872,7 +4047,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24" s="6">
         <v>3</v>
@@ -3887,19 +4062,19 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
       <c r="Y24" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Z24">
         <v>3</v>
       </c>
       <c r="AQ24" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AR24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3907,7 +4082,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H25" s="6">
         <v>3</v>
@@ -3922,19 +4097,19 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
       <c r="Y25" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Z25">
         <v>3</v>
       </c>
       <c r="AQ25" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AR25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3957,19 +4132,19 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
       <c r="Y26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Z26">
         <v>3</v>
       </c>
       <c r="AQ26" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AR26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3986,19 +4161,19 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="8"/>
       <c r="Y27" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Z27">
         <v>3</v>
       </c>
       <c r="AQ27" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AR27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -4015,13 +4190,13 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
       <c r="Y28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Z28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -4040,13 +4215,13 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="8"/>
       <c r="Y29" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Z29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4065,13 +4240,13 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="Y30" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Z30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4090,13 +4265,13 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="Y31" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Z31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4115,13 +4290,13 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="Y32" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Z32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4140,7 +4315,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4159,7 +4334,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4178,7 +4353,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4197,7 +4372,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4216,7 +4391,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4235,7 +4410,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4254,7 +4429,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4273,7 +4448,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4292,7 +4467,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4311,7 +4486,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4333,6 +4508,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Telegram_ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A3970-5270-46AD-AC62-0A94B8B97B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA054E33-7AD8-4436-B343-CB6290AD9EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10632" yWindow="0" windowWidth="11400" windowHeight="12336" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
+    <workbookView xWindow="11328" yWindow="12" windowWidth="11400" windowHeight="12348" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="316">
   <si>
     <t>인간공학</t>
   </si>
@@ -1259,6 +1259,10 @@
   </si>
   <si>
     <t>웹프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어와미래사회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C511E-1637-4235-837E-53B27F652B1A}">
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3990,7 +3994,12 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
       <c r="Y22" t="s">
         <v>139</v>
       </c>

--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Telegram_ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA054E33-7AD8-4436-B343-CB6290AD9EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B14CFF-26A1-4D4E-93C8-144279DECDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="12" windowWidth="11400" windowHeight="12348" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
+    <workbookView xWindow="11256" yWindow="12" windowWidth="11400" windowHeight="12348" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="317">
   <si>
     <t>인간공학</t>
   </si>
@@ -1264,6 +1264,9 @@
   <si>
     <t>소프트웨어와미래사회</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터사이언스를위한파이썬프로그래밍</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1706,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4034,7 +4037,12 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
       <c r="Y23" t="s">
         <v>139</v>
       </c>

--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Telegram_ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B14CFF-26A1-4D4E-93C8-144279DECDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F2504-4F32-441B-9B2A-2456F3DEB49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11256" yWindow="12" windowWidth="11400" windowHeight="12348" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="318">
   <si>
     <t>인간공학</t>
   </si>
@@ -1267,6 +1267,10 @@
   </si>
   <si>
     <t>데이터사이언스를위한파이썬프로그래밍</t>
+  </si>
+  <si>
+    <t>머신러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1705,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C511E-1637-4235-837E-53B27F652B1A}">
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2897,8 +2901,12 @@
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>

--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Telegram_ChatBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/Telegram_ChatBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F2504-4F32-441B-9B2A-2456F3DEB49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D6498-D58C-DC44-A4A7-F824E5AA27E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
+    <workbookView xWindow="12580" yWindow="3180" windowWidth="23260" windowHeight="12580" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="323">
   <si>
     <t>인간공학</t>
   </si>
@@ -1272,12 +1272,32 @@
     <t>머신러닝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>인공지능수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터분석입문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술경영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삶은화학물질과의소통이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웰빙사이언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1709,60 +1729,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C511E-1637-4235-837E-53B27F652B1A}">
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" customWidth="1"/>
-    <col min="5" max="5" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.8984375" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="28.19921875" customWidth="1"/>
-    <col min="15" max="15" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="28.1640625" customWidth="1"/>
+    <col min="15" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.3984375" customWidth="1"/>
-    <col min="47" max="47" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.33203125" customWidth="1"/>
+    <col min="47" max="47" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:62">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
@@ -1950,7 +1968,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:62">
       <c r="A2" s="5" t="s">
         <v>96</v>
       </c>
@@ -2138,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:62">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2320,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:62">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2484,7 +2502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:62">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:62">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2770,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:62">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2807,8 +2825,12 @@
       <c r="L7" s="7">
         <v>3</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="M7" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="N7" s="9">
+        <v>3</v>
+      </c>
       <c r="O7" s="9" t="s">
         <v>311</v>
       </c>
@@ -2900,7 +2922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:62">
       <c r="A8" s="5" t="s">
         <v>317</v>
       </c>
@@ -2937,8 +2959,12 @@
       <c r="L8" s="7">
         <v>3</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="N8" s="9">
+        <v>3</v>
+      </c>
       <c r="O8" s="9" t="s">
         <v>302</v>
       </c>
@@ -3018,9 +3044,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:62">
+      <c r="A9" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
       <c r="C9" s="10" t="s">
         <v>298</v>
       </c>
@@ -3126,9 +3156,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:62">
+      <c r="A10" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
@@ -3224,9 +3258,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+    <row r="11" spans="1:62">
+      <c r="A11" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3318,9 +3356,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+    <row r="12" spans="1:62">
+      <c r="A12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3406,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:62">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
@@ -3494,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:62">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
@@ -3572,7 +3614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:62">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -3638,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:62">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -3706,7 +3748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:44">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="7"/>
@@ -3774,7 +3816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:44">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="7"/>
@@ -3830,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:44">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
@@ -3886,7 +3928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:44">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="7"/>
@@ -3936,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:44">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="7"/>
@@ -3980,7 +4022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:44">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -4024,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:44">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4064,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:44">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4085,7 +4127,12 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="8"/>
+      <c r="Q24" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
       <c r="Y24" t="s">
         <v>140</v>
       </c>
@@ -4099,7 +4146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:44">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4134,7 +4181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:44">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4169,7 +4216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:44">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -4198,7 +4245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:44">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -4221,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:44">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -4246,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:44">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4271,7 +4318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:44">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4296,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:44">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4321,7 +4368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4340,7 +4387,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4359,7 +4406,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4378,7 +4425,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4397,7 +4444,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4416,7 +4463,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4435,7 +4482,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4454,7 +4501,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4473,7 +4520,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4492,7 +4539,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4511,7 +4558,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>

--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/Telegram_ChatBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D6498-D58C-DC44-A4A7-F824E5AA27E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41657397-16C2-F44F-8F71-8E9F587307C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12580" yWindow="3180" windowWidth="23260" windowHeight="12580" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
@@ -1730,7 +1730,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>

--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/Telegram_ChatBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41657397-16C2-F44F-8F71-8E9F587307C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC87AAE-193E-7E42-908A-BF696F55ED73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12580" yWindow="3180" windowWidth="23260" windowHeight="12580" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="323">
   <si>
     <t>인간공학</t>
   </si>
@@ -1729,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C511E-1637-4235-837E-53B27F652B1A}">
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3587,6 +3587,12 @@
         <v>131</v>
       </c>
       <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH14">
         <v>3</v>
       </c>
       <c r="AK14" t="s">

--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/Telegram_ChatBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC87AAE-193E-7E42-908A-BF696F55ED73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6BA477-3990-EC41-B087-458170D72232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12580" yWindow="3180" windowWidth="23260" windowHeight="12580" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="325">
   <si>
     <t>인간공학</t>
   </si>
@@ -1292,12 +1292,19 @@
     <t>웰빙사이언스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>영문학속의AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOEIC영어</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,6 +1349,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1365,7 +1378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1398,6 +1411,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1729,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C511E-1637-4235-837E-53B27F652B1A}">
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2656,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -2795,10 +2811,10 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="10">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2929,12 +2945,6 @@
       <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
       <c r="E8" s="6" t="s">
         <v>0</v>
       </c>
@@ -3051,12 +3061,6 @@
       <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3</v>
-      </c>
       <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
@@ -3081,8 +3085,12 @@
       <c r="L9" s="7">
         <v>3</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="M9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N9" s="9">
+        <v>3</v>
+      </c>
       <c r="O9" s="9" t="s">
         <v>303</v>
       </c>
@@ -3189,8 +3197,12 @@
       <c r="L10" s="9">
         <v>2</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="M10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="N10" s="9">
+        <v>3</v>
+      </c>
       <c r="O10" s="9" t="s">
         <v>305</v>
       </c>

--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/Telegram_ChatBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6BA477-3990-EC41-B087-458170D72232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B282061C-6046-6546-8B52-726475F8A38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12580" yWindow="3180" windowWidth="23260" windowHeight="12580" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C511E-1637-4235-837E-53B27F652B1A}">
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3651,6 +3651,7 @@
       <c r="J15" s="5">
         <v>3</v>
       </c>
+      <c r="K15" s="10"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3717,7 +3718,7 @@
       <c r="J16" s="5">
         <v>3</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>

--- a/졸업요건_산시.xlsx
+++ b/졸업요건_산시.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/Telegram_ChatBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B282061C-6046-6546-8B52-726475F8A38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843082C3-2F6E-3C47-9843-83FF2D16D815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12580" yWindow="3180" windowWidth="23260" windowHeight="12580" xr2:uid="{040D12D5-F3DB-444E-9C64-4F561849ADBC}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="326">
   <si>
     <t>인간공학</t>
   </si>
@@ -1298,6 +1298,10 @@
   </si>
   <si>
     <t>TOEIC영어</t>
+  </si>
+  <si>
+    <t>데이터랭글링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1745,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C511E-1637-4235-837E-53B27F652B1A}">
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q26:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1772,6 +1776,7 @@
     <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.1640625" customWidth="1"/>
     <col min="29" max="29" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -4186,7 +4191,12 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
       <c r="Y25" t="s">
         <v>141</v>
       </c>
